--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit1-Robo1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H2">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I2">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J2">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.105838170621644</v>
+        <v>0.1438866666666667</v>
       </c>
       <c r="N2">
-        <v>0.105838170621644</v>
+        <v>0.43166</v>
       </c>
       <c r="O2">
-        <v>0.004458236745275686</v>
+        <v>0.005528090411415381</v>
       </c>
       <c r="P2">
-        <v>0.004458236745275686</v>
+        <v>0.005816871971504955</v>
       </c>
       <c r="Q2">
-        <v>0.03303534340961554</v>
+        <v>0.04896535210000001</v>
       </c>
       <c r="R2">
-        <v>0.03303534340961554</v>
+        <v>0.4406881689000001</v>
       </c>
       <c r="S2">
-        <v>0.001250184021343886</v>
+        <v>0.001334366335541346</v>
       </c>
       <c r="T2">
-        <v>0.001250184021343886</v>
+        <v>0.001467538341822526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H3">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I3">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J3">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3633245173465</v>
+        <v>21.99231</v>
       </c>
       <c r="N3">
-        <v>20.3633245173465</v>
+        <v>65.97693</v>
       </c>
       <c r="O3">
-        <v>0.8577672978093019</v>
+        <v>0.8449391514331273</v>
       </c>
       <c r="P3">
-        <v>0.8577672978093019</v>
+        <v>0.889077873518381</v>
       </c>
       <c r="Q3">
-        <v>6.356018952716249</v>
+        <v>7.484093054550001</v>
       </c>
       <c r="R3">
-        <v>6.356018952716249</v>
+        <v>67.35683749095</v>
       </c>
       <c r="S3">
-        <v>0.2405361202248579</v>
+        <v>0.2039507814353145</v>
       </c>
       <c r="T3">
-        <v>0.2405361202248579</v>
+        <v>0.2243054127107928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H4">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I4">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J4">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.27075438435845</v>
+        <v>0.015519</v>
       </c>
       <c r="N4">
-        <v>3.27075438435845</v>
+        <v>0.046557</v>
       </c>
       <c r="O4">
-        <v>0.1377744654454222</v>
+        <v>0.0005962361703291152</v>
       </c>
       <c r="P4">
-        <v>0.1377744654454222</v>
+        <v>0.0006273829133516105</v>
       </c>
       <c r="Q4">
-        <v>1.020902890338608</v>
+        <v>0.005281193295</v>
       </c>
       <c r="R4">
-        <v>1.020902890338608</v>
+        <v>0.047530739655</v>
       </c>
       <c r="S4">
-        <v>0.03863487856080894</v>
+        <v>0.000143919041569287</v>
       </c>
       <c r="T4">
-        <v>0.03863487856080894</v>
+        <v>0.0001582824041612179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,55 +717,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.417963708183947</v>
+        <v>0.340305</v>
       </c>
       <c r="H5">
-        <v>0.417963708183947</v>
+        <v>1.020915</v>
       </c>
       <c r="I5">
-        <v>0.3755025488416036</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J5">
-        <v>0.3755025488416036</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.105838170621644</v>
+        <v>3.876561</v>
       </c>
       <c r="N5">
-        <v>0.105838170621644</v>
+        <v>7.753121999999999</v>
       </c>
       <c r="O5">
-        <v>0.004458236745275686</v>
+        <v>0.1489365219851282</v>
       </c>
       <c r="P5">
-        <v>0.004458236745275686</v>
+        <v>0.1044778715967623</v>
       </c>
       <c r="Q5">
-        <v>0.04423651426042761</v>
+        <v>1.319213091105</v>
       </c>
       <c r="R5">
-        <v>0.04423651426042761</v>
+        <v>7.91527854663</v>
       </c>
       <c r="S5">
-        <v>0.001674079261190315</v>
+        <v>0.03595018646207079</v>
       </c>
       <c r="T5">
-        <v>0.001674079261190315</v>
+        <v>0.02635871705469059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H6">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I6">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J6">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3633245173465</v>
+        <v>0.1438866666666667</v>
       </c>
       <c r="N6">
-        <v>20.3633245173465</v>
+        <v>0.43166</v>
       </c>
       <c r="O6">
-        <v>0.8577672978093019</v>
+        <v>0.005528090411415381</v>
       </c>
       <c r="P6">
-        <v>0.8577672978093019</v>
+        <v>0.005816871971504955</v>
       </c>
       <c r="Q6">
-        <v>8.511130626223226</v>
+        <v>0.06805580337333335</v>
       </c>
       <c r="R6">
-        <v>8.511130626223226</v>
+        <v>0.6125022303600001</v>
       </c>
       <c r="S6">
-        <v>0.3220938066403677</v>
+        <v>0.001854604716701244</v>
       </c>
       <c r="T6">
-        <v>0.3220938066403677</v>
+        <v>0.002039697389083034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H7">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I7">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J7">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.27075438435845</v>
+        <v>21.99231</v>
       </c>
       <c r="N7">
-        <v>3.27075438435845</v>
+        <v>65.97693</v>
       </c>
       <c r="O7">
-        <v>0.1377744654454222</v>
+        <v>0.8449391514331273</v>
       </c>
       <c r="P7">
-        <v>0.1377744654454222</v>
+        <v>0.889077873518381</v>
       </c>
       <c r="Q7">
-        <v>1.36705663104536</v>
+        <v>10.40196676842</v>
       </c>
       <c r="R7">
-        <v>1.36705663104536</v>
+        <v>93.61770091577999</v>
       </c>
       <c r="S7">
-        <v>0.05173466294004549</v>
+        <v>0.2834664448210808</v>
       </c>
       <c r="T7">
-        <v>0.05173466294004549</v>
+        <v>0.3117568731425521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,60 +903,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2179485360073</v>
+        <v>0.472982</v>
       </c>
       <c r="H8">
-        <v>0.2179485360073</v>
+        <v>1.418946</v>
       </c>
       <c r="I8">
-        <v>0.1958070262670247</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J8">
-        <v>0.1958070262670247</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.105838170621644</v>
+        <v>0.015519</v>
       </c>
       <c r="N8">
-        <v>0.105838170621644</v>
+        <v>0.046557</v>
       </c>
       <c r="O8">
-        <v>0.004458236745275686</v>
+        <v>0.0005962361703291152</v>
       </c>
       <c r="P8">
-        <v>0.004458236745275686</v>
+        <v>0.0006273829133516105</v>
       </c>
       <c r="Q8">
-        <v>0.02306727434067814</v>
+        <v>0.007340207658</v>
       </c>
       <c r="R8">
-        <v>0.02306727434067814</v>
+        <v>0.066061868922</v>
       </c>
       <c r="S8">
-        <v>0.0008729540794868109</v>
+        <v>0.0002000297266261868</v>
       </c>
       <c r="T8">
-        <v>0.0008729540794868109</v>
+        <v>0.0002199930300318278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,55 +965,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2179485360073</v>
+        <v>0.472982</v>
       </c>
       <c r="H9">
-        <v>0.2179485360073</v>
+        <v>1.418946</v>
       </c>
       <c r="I9">
-        <v>0.1958070262670247</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J9">
-        <v>0.1958070262670247</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3633245173465</v>
+        <v>3.876561</v>
       </c>
       <c r="N9">
-        <v>20.3633245173465</v>
+        <v>7.753121999999999</v>
       </c>
       <c r="O9">
-        <v>0.8577672978093019</v>
+        <v>0.1489365219851282</v>
       </c>
       <c r="P9">
-        <v>0.8577672978093019</v>
+        <v>0.1044778715967623</v>
       </c>
       <c r="Q9">
-        <v>4.438156766797228</v>
+        <v>1.833543574902</v>
       </c>
       <c r="R9">
-        <v>4.438156766797228</v>
+        <v>11.001261449412</v>
       </c>
       <c r="S9">
-        <v>0.1679568638131408</v>
+        <v>0.04996632753912863</v>
       </c>
       <c r="T9">
-        <v>0.1679568638131408</v>
+        <v>0.03663536742028964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H10">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I10">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J10">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.27075438435845</v>
+        <v>0.1438866666666667</v>
       </c>
       <c r="N10">
-        <v>3.27075438435845</v>
+        <v>0.43166</v>
       </c>
       <c r="O10">
-        <v>0.1377744654454222</v>
+        <v>0.005528090411415381</v>
       </c>
       <c r="P10">
-        <v>0.1377744654454222</v>
+        <v>0.005816871971504955</v>
       </c>
       <c r="Q10">
-        <v>0.712856129710382</v>
+        <v>0.05951675321555557</v>
       </c>
       <c r="R10">
-        <v>0.712856129710382</v>
+        <v>0.53565077894</v>
       </c>
       <c r="S10">
-        <v>0.02697720837439708</v>
+        <v>0.001621905050930073</v>
       </c>
       <c r="T10">
-        <v>0.02697720837439708</v>
+        <v>0.001783773904989787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,60 +1089,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.165035263868059</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H11">
-        <v>0.165035263868059</v>
+        <v>1.240909</v>
       </c>
       <c r="I11">
-        <v>0.1482692420843608</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J11">
-        <v>0.1482692420843608</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.105838170621644</v>
+        <v>21.99231</v>
       </c>
       <c r="N11">
-        <v>0.105838170621644</v>
+        <v>65.97693</v>
       </c>
       <c r="O11">
-        <v>0.004458236745275686</v>
+        <v>0.8449391514331273</v>
       </c>
       <c r="P11">
-        <v>0.004458236745275686</v>
+        <v>0.889077873518381</v>
       </c>
       <c r="Q11">
-        <v>0.01746703041585567</v>
+        <v>9.09681846993</v>
       </c>
       <c r="R11">
-        <v>0.01746703041585567</v>
+        <v>81.87136622937</v>
       </c>
       <c r="S11">
-        <v>0.0006610193832546732</v>
+        <v>0.2478995413331322</v>
       </c>
       <c r="T11">
-        <v>0.0006610193832546732</v>
+        <v>0.2726403328205945</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,60 +1151,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.165035263868059</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H12">
-        <v>0.165035263868059</v>
+        <v>1.240909</v>
       </c>
       <c r="I12">
-        <v>0.1482692420843608</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J12">
-        <v>0.1482692420843608</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>20.3633245173465</v>
+        <v>0.015519</v>
       </c>
       <c r="N12">
-        <v>20.3633245173465</v>
+        <v>0.046557</v>
       </c>
       <c r="O12">
-        <v>0.8577672978093019</v>
+        <v>0.0005962361703291152</v>
       </c>
       <c r="P12">
-        <v>0.8577672978093019</v>
+        <v>0.0006273829133516105</v>
       </c>
       <c r="Q12">
-        <v>3.360666634951194</v>
+        <v>0.006419222257</v>
       </c>
       <c r="R12">
-        <v>3.360666634951194</v>
+        <v>0.05777300031300001</v>
       </c>
       <c r="S12">
-        <v>0.1271805071309354</v>
+        <v>0.0001749317366819983</v>
       </c>
       <c r="T12">
-        <v>0.1271805071309354</v>
+        <v>0.0001923902184464846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1216,52 +1216,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.165035263868059</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H13">
-        <v>0.165035263868059</v>
+        <v>1.240909</v>
       </c>
       <c r="I13">
-        <v>0.1482692420843608</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J13">
-        <v>0.1482692420843608</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.27075438435845</v>
+        <v>3.876561</v>
       </c>
       <c r="N13">
-        <v>3.27075438435845</v>
+        <v>7.753121999999999</v>
       </c>
       <c r="O13">
-        <v>0.1377744654454222</v>
+        <v>0.1489365219851282</v>
       </c>
       <c r="P13">
-        <v>0.1377744654454222</v>
+        <v>0.1044778715967623</v>
       </c>
       <c r="Q13">
-        <v>0.5397898128702077</v>
+        <v>1.603486477983</v>
       </c>
       <c r="R13">
-        <v>0.5397898128702077</v>
+        <v>9.620918867898</v>
       </c>
       <c r="S13">
-        <v>0.02042771557017071</v>
+        <v>0.04369698744015104</v>
       </c>
       <c r="T13">
-        <v>0.02042771557017071</v>
+        <v>0.03203868022471905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.182912</v>
+      </c>
+      <c r="H14">
+        <v>0.365824</v>
+      </c>
+      <c r="I14">
+        <v>0.129739974361072</v>
+      </c>
+      <c r="J14">
+        <v>0.09040294133782634</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1438866666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.43166</v>
+      </c>
+      <c r="O14">
+        <v>0.005528090411415381</v>
+      </c>
+      <c r="P14">
+        <v>0.005816871971504955</v>
+      </c>
+      <c r="Q14">
+        <v>0.02631859797333334</v>
+      </c>
+      <c r="R14">
+        <v>0.15791158784</v>
+      </c>
+      <c r="S14">
+        <v>0.0007172143082427193</v>
+      </c>
+      <c r="T14">
+        <v>0.0005258623356096087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.182912</v>
+      </c>
+      <c r="H15">
+        <v>0.365824</v>
+      </c>
+      <c r="I15">
+        <v>0.129739974361072</v>
+      </c>
+      <c r="J15">
+        <v>0.09040294133782634</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.99231</v>
+      </c>
+      <c r="N15">
+        <v>65.97693</v>
+      </c>
+      <c r="O15">
+        <v>0.8449391514331273</v>
+      </c>
+      <c r="P15">
+        <v>0.889077873518381</v>
+      </c>
+      <c r="Q15">
+        <v>4.02265740672</v>
+      </c>
+      <c r="R15">
+        <v>24.13594444032</v>
+      </c>
+      <c r="S15">
+        <v>0.1096223838435998</v>
+      </c>
+      <c r="T15">
+        <v>0.08037525484444158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.182912</v>
+      </c>
+      <c r="H16">
+        <v>0.365824</v>
+      </c>
+      <c r="I16">
+        <v>0.129739974361072</v>
+      </c>
+      <c r="J16">
+        <v>0.09040294133782634</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.015519</v>
+      </c>
+      <c r="N16">
+        <v>0.046557</v>
+      </c>
+      <c r="O16">
+        <v>0.0005962361703291152</v>
+      </c>
+      <c r="P16">
+        <v>0.0006273829133516105</v>
+      </c>
+      <c r="Q16">
+        <v>0.002838611328</v>
+      </c>
+      <c r="R16">
+        <v>0.017031667968</v>
+      </c>
+      <c r="S16">
+        <v>7.735566545164314E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.671726071208023E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.182912</v>
+      </c>
+      <c r="H17">
+        <v>0.365824</v>
+      </c>
+      <c r="I17">
+        <v>0.129739974361072</v>
+      </c>
+      <c r="J17">
+        <v>0.09040294133782634</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.876561</v>
+      </c>
+      <c r="N17">
+        <v>7.753121999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1489365219851282</v>
+      </c>
+      <c r="P17">
+        <v>0.1044778715967623</v>
+      </c>
+      <c r="Q17">
+        <v>0.709069525632</v>
+      </c>
+      <c r="R17">
+        <v>2.836278102528</v>
+      </c>
+      <c r="S17">
+        <v>0.01932302054377777</v>
+      </c>
+      <c r="T17">
+        <v>0.009445106897063058</v>
       </c>
     </row>
   </sheetData>
